--- a/FTB_ErrorCode.xlsx
+++ b/FTB_ErrorCode.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescopanico/Desktop/Francesco/Vari/Projects/FTB_Community/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F2600C9-DCD4-ED42-B511-34BB5BB0E757}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FB5C084-E149-4745-AF72-50038CF27990}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16160" activeTab="1" xr2:uid="{3D909561-8EDF-6140-BD21-0994FFE6746E}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16060" activeTab="2" xr2:uid="{3D909561-8EDF-6140-BD21-0994FFE6746E}"/>
   </bookViews>
   <sheets>
     <sheet name="INTEGRATION" sheetId="1" r:id="rId1"/>
     <sheet name="PLAYER" sheetId="2" r:id="rId2"/>
+    <sheet name="LOGIN" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
   <si>
     <t>ERROR_CODE</t>
   </si>
@@ -76,6 +77,21 @@
   </si>
   <si>
     <t>Failed to start the insert job</t>
+  </si>
+  <si>
+    <t>LOG-0000</t>
+  </si>
+  <si>
+    <t>LOG-0001</t>
+  </si>
+  <si>
+    <t>User not found. If you are already registered check your username and password are correct. Otherwise if your are not yet register click the Sign On button</t>
+  </si>
+  <si>
+    <t>LOG-0002</t>
+  </si>
+  <si>
+    <t>User already registered</t>
   </si>
 </sst>
 </file>
@@ -493,8 +509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8130451F-88F2-B048-9072-F6FE2450A0CE}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -537,4 +553,59 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3DCB0F7-1C2E-4745-BFC6-E684A96A36B5}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="131.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>